--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="10_ncr:100000_{F0141121-6886-488B-B509-75176B84DCEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{36173C95-DEEE-2B48-9F58-734A8ABF0136}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,20 +16,20 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -228,11 +222,20 @@
   <si>
     <t>model4c.c</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>r2m = 0.003042985</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -265,12 +268,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,12 +296,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,21 +584,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -618,7 +633,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -707,7 +722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -757,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -805,7 +820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -852,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -896,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -967,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1312,7 +1327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1329,7 +1344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1349,7 +1364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1421,7 +1436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1488,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1496,7 +1511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1513,25 +1528,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -1566,7 +1586,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1800,7 +1820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1880,7 +1900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1980,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2164,7 +2184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,7 +2260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -2260,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2317,7 +2337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2334,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2352,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2369,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2395,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2406,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2414,7 +2434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2425,7 +2445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -2436,7 +2456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2444,7 +2464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2469,18 +2489,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -2515,7 +2540,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2604,7 +2629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2654,7 +2679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2749,7 +2774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +2818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2829,7 +2854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2896,7 +2921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2961,7 +2986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2990,7 +3015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3022,7 +3047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3054,7 +3079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -3083,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -3113,7 +3138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3142,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3168,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3189,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3209,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3246,7 +3271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3266,7 +3291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3283,7 +3308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3301,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -3318,7 +3343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -3332,7 +3357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3344,7 +3369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3355,7 +3380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -3363,7 +3388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3374,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3385,7 +3410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -3393,7 +3418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -3402,7 +3427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -3410,26 +3435,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -3464,7 +3494,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3553,10 +3583,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.6472919999999999E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3603,10 +3648,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1">
+        <v>2.6646769999999998E-3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -3651,13 +3711,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>2.7021950000000001E-3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3698,10 +3776,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>2.7117830000000002E-3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3742,14 +3835,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="B6" s="1">
+        <v>2.8662200000000001E-3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3778,81 +3894,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="B9" s="1">
+        <v>2.898865E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>13</v>
       </c>
@@ -3878,16 +4017,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>2.9975639999999999E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3910,13 +4073,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>3.0021829999999998E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3939,195 +4126,221 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="4"/>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Y18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AB18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4138,246 +4351,274 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="4"/>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="3" customFormat="1">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="B27" s="1">
+        <v>3.2086630000000001E-3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q27" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="Y27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="3" customFormat="1">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="4"/>
+      <c r="W33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -4412,7 +4653,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4501,7 +4742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4551,7 +4792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4599,7 +4840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4646,7 +4887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4690,7 +4931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4726,7 +4967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4761,7 +5002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4793,7 +5034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4826,7 +5067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4858,7 +5099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4887,7 +5128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4919,7 +5160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4951,7 +5192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4980,7 +5221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5010,7 +5251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5039,7 +5280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5065,7 +5306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -5086,7 +5327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5106,7 +5347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5123,7 +5364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5143,7 +5384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5163,7 +5404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5180,7 +5421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5198,7 +5439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5215,7 +5456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -5229,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5241,7 +5482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -5252,7 +5493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -5260,7 +5501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5271,7 +5512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -5282,7 +5523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -5290,7 +5531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5299,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5307,25 +5548,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -5360,7 +5606,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5449,7 +5695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5499,7 +5745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +5793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5594,7 +5840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5638,7 +5884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5674,7 +5920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5741,7 +5987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5774,7 +6020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5806,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5835,7 +6081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5867,7 +6113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -5899,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5928,7 +6174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5958,7 +6204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5987,7 +6233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6013,7 +6259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6034,7 +6280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6054,7 +6300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6071,7 +6317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6091,7 +6337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6111,7 +6357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6128,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6146,7 +6392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6163,7 +6409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6177,7 +6423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6189,7 +6435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6200,7 +6446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6208,7 +6454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6219,7 +6465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6230,7 +6476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6238,7 +6484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6247,7 +6493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6255,18 +6501,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6274,7 +6525,7 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -6309,7 +6560,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6398,7 +6649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6448,7 +6699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6496,7 +6747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6543,7 +6794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6587,7 +6838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6623,7 +6874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6658,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6690,7 +6941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6723,7 +6974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6755,7 +7006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6784,7 +7035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6816,7 +7067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6848,7 +7099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6877,7 +7128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6907,7 +7158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6936,7 +7187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6962,7 +7213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6983,7 +7234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7003,7 +7254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7020,7 +7271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7040,7 +7291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7077,7 +7328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7095,7 +7346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7112,7 +7363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -7126,7 +7377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -7138,7 +7389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -7149,7 +7400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -7157,7 +7408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -7168,7 +7419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -7179,7 +7430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -7187,7 +7438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7196,7 +7447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7204,25 +7455,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -7257,7 +7513,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7346,7 +7602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7396,7 +7652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7444,7 +7700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7491,7 +7747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7535,7 +7791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7571,7 +7827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7606,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7638,7 +7894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7671,7 +7927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7703,7 +7959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7732,7 +7988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7764,7 +8020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7796,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7825,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7855,7 +8111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7884,7 +8140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7910,7 +8166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7931,7 +8187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7951,7 +8207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7968,7 +8224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7988,7 +8244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -8008,7 +8264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8025,7 +8281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8043,7 +8299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8060,7 +8316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8074,7 +8330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8086,7 +8342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8097,7 +8353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8105,7 +8361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8116,7 +8372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8127,7 +8383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8135,7 +8391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8144,7 +8400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8152,12 +8408,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_880FDE7FEB0C7396D5F7A8310E70061F032BE8D3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BB56DEAB-CAB4-A044-8B04-FB372830B23C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -16,20 +22,20 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -235,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,21 +590,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -633,7 +639,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -722,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -772,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -820,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -867,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -911,7 +917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -947,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -982,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1544,14 +1550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -1586,7 +1592,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2498,14 +2504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -2540,7 +2546,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -3452,14 +3458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -3494,7 +3500,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -4158,7 +4164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -4570,7 +4576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -4611,14 +4617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -4653,7 +4659,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4792,7 +4798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4967,7 +4973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5099,7 +5105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5456,7 +5462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -5523,7 +5529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -5564,14 +5570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -5606,7 +5612,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6113,7 +6119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6300,7 +6306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6446,7 +6452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6454,7 +6460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6484,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -6517,7 +6523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6525,7 +6531,7 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -6560,7 +6566,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6838,7 +6844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6941,7 +6947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7213,7 +7219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7311,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7363,7 +7369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -7377,7 +7383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -7419,7 +7425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -7471,14 +7477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -7513,7 +7519,7 @@
     <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7602,10 +7608,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -7652,11 +7670,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="B3" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
@@ -7700,13 +7732,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
@@ -7747,10 +7791,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -7791,14 +7847,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="S6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="V6" s="1" t="s">
         <v>13</v>
       </c>
@@ -7827,81 +7895,108 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="B8" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="S9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>13</v>
       </c>
@@ -7927,13 +8022,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="S10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="V10" s="1" t="s">
         <v>13</v>
       </c>
@@ -7959,13 +8069,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="S11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7988,192 +8113,207 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="4"/>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="X17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="S18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
@@ -8187,153 +8327,165 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="4"/>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AB26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -8341,75 +8493,78 @@
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="1" t="s">
+      <c r="AD27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="4"/>
+      <c r="W33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_880FDE7FEB0C7396D5F7A8310E70061F032BE8D3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BB56DEAB-CAB4-A044-8B04-FB372830B23C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DDA97-50B7-A649-A93B-0C7F7A82035E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="15540" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -5574,7 +5574,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6526,9 +6526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6659,6 +6659,24 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.578168E-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6709,6 +6727,24 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1">
+        <v>2.6990529999999999E-3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -6757,6 +6793,24 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>2.6881639999999998E-3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6804,6 +6858,24 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>2.7028130000000001E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6848,6 +6920,24 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="1">
+        <v>2.9485129999999998E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
@@ -6884,34 +6974,53 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6919,31 +7028,51 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6951,6 +7080,24 @@
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="1">
+        <v>2.9485240000000001E-3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -6984,11 +7131,35 @@
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>3.0455220000000002E-3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>13</v>
@@ -7016,8 +7187,32 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>3.0749089999999998E-3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>13</v>
@@ -7045,31 +7240,51 @@
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7077,31 +7292,51 @@
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7109,28 +7344,49 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7138,29 +7394,49 @@
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7168,28 +7444,49 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7197,25 +7494,47 @@
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7223,6 +7542,24 @@
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>3.0108819999999999E-3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -7244,19 +7581,43 @@
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7264,16 +7625,41 @@
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7281,19 +7667,43 @@
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7301,19 +7711,43 @@
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7321,16 +7755,41 @@
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7338,17 +7797,41 @@
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7356,16 +7839,41 @@
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7373,13 +7881,39 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7387,6 +7921,24 @@
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>2.9159500000000001E-3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -7399,72 +7951,293 @@
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7480,7 +8253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KDValentine/Documents/GitHub/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DDA97-50B7-A649-A93B-0C7F7A82035E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="15540" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -597,11 +596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,6 +732,21 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>1.777973E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -782,7 +797,24 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="B3" s="1">
+        <v>1.8264959999999999E-3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
@@ -830,8 +862,23 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>1.807017E-3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
@@ -877,6 +924,18 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>1.836023E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -921,7 +980,21 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="B6" s="1">
+        <v>1.65303E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>13</v>
       </c>
@@ -953,70 +1026,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="V8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1024,7 +1097,21 @@
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="B9" s="1">
+        <v>1.654031E-3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1057,6 +1144,24 @@
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>1.6601890000000001E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,6 +1194,21 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>1.666975E-3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1114,181 +1234,181 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="4"/>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="X17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1296,13 +1416,33 @@
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="B18" s="1">
+        <v>1.847537E-3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Y18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AB18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,146 +1453,146 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="4"/>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AB26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1460,6 +1600,15 @@
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>2.2761769999999999E-3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -1467,90 +1616,91 @@
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="Y27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="4"/>
+      <c r="W33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2495,16 +2645,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
@@ -3449,16 +3594,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4608,16 +4748,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5561,16 +5696,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6514,19 +6644,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P27" sqref="P27"/>
     </sheetView>
@@ -8241,16 +8366,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9343,10 +9463,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KDValentine/Documents/GitHub/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015DFBB-5A42-4B19-B841-F3B34CF2D630}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16860" windowHeight="14415" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -273,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +320,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,50 +609,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -728,7 +741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -793,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -858,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -920,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -976,7 +989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1266,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1298,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1327,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1357,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -1565,7 +1578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -1634,7 +1647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -1653,7 +1666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -1672,7 +1685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -1689,7 +1702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -1700,49 +1713,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1831,10 +1844,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1881,11 +1906,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="B3" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1929,13 +1971,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1976,10 +2033,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2020,10 +2089,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
@@ -2056,77 +2140,92 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="V8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -2156,10 +2255,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2188,10 +2302,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2217,188 +2346,200 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="6"/>
+      <c r="W15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -2416,153 +2557,162 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="6"/>
+      <c r="W24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -2570,75 +2720,78 @@
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="AC27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="6"/>
+      <c r="W33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2649,49 +2802,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2780,7 +2933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2830,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2878,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2925,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2969,7 +3122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3005,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3040,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3072,7 +3225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3105,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,7 +3290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3166,7 +3319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3198,7 +3351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3230,7 +3383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -3259,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3318,7 +3471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3344,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3365,7 +3518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3385,7 +3538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3422,7 +3575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3442,7 +3595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3459,7 +3612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3477,7 +3630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -3494,7 +3647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -3508,7 +3661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3520,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,7 +3684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -3539,7 +3692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3550,7 +3703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,7 +3714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -3569,7 +3722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -3578,7 +3731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -3586,7 +3739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,49 +3751,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3729,7 +3882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +3947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3857,7 +4010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3922,7 +4075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +4134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,7 +4193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -4075,7 +4228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -4107,7 +4260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4163,7 +4316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4219,7 +4372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4272,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -4304,7 +4457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -4336,7 +4489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -4365,7 +4518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -4395,7 +4548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -4424,7 +4577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -4450,7 +4603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4497,7 +4650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -4517,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -4534,7 +4687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -4554,7 +4707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -4574,7 +4727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -4591,7 +4744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -4609,7 +4762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -4626,7 +4779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -4640,7 +4793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4675,7 +4828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -4686,7 +4839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -4694,7 +4847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -4705,7 +4858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -4716,7 +4869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -4724,7 +4877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -4733,7 +4886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -4741,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -4752,49 +4905,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4883,7 +5036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4933,7 +5086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +5134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5028,7 +5181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5072,7 +5225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5108,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5143,7 +5296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5175,7 +5328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5208,7 +5361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5240,7 +5393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5269,7 +5422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5301,7 +5454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -5333,7 +5486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5362,7 +5515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5392,7 +5545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5421,7 +5574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5447,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -5468,7 +5621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5488,7 +5641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5505,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5525,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5545,7 +5698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5562,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5580,7 +5733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5597,7 +5750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -5611,7 +5764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5623,7 +5776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -5634,7 +5787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -5642,7 +5795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5653,7 +5806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -5664,7 +5817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -5672,7 +5825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,7 +5834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5689,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -5700,49 +5853,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5831,7 +5984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5881,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5929,7 +6082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5976,7 +6129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6020,7 +6173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6056,7 +6209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6091,7 +6244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6123,7 +6276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6156,7 +6309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6188,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6217,7 +6370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6249,7 +6402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6281,7 +6434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6310,7 +6463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6340,7 +6493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6369,7 +6522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6395,7 +6548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6416,7 +6569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6436,7 +6589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6453,7 +6606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6473,7 +6626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6493,7 +6646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6510,7 +6663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6528,7 +6681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6545,7 +6698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6559,7 +6712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6571,7 +6724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6582,7 +6735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6590,7 +6743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6601,7 +6754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6612,7 +6765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6620,7 +6773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6629,7 +6782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6637,7 +6790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -6648,7 +6801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6656,42 +6809,42 @@
       <selection pane="topRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6780,7 +6933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6848,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6914,7 +7067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6979,7 +7132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7041,7 +7194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7095,7 +7248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7149,7 +7302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7201,7 +7354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7252,7 +7405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7308,7 +7461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7361,7 +7514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7413,7 +7566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7465,7 +7618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7515,7 +7668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7565,7 +7718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7615,7 +7768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7663,7 +7816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7702,7 +7855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7746,7 +7899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7788,7 +7941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7832,7 +7985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7876,7 +8029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7918,7 +8071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7960,7 +8113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8002,7 +8155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8042,7 +8195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8072,7 +8225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8110,7 +8263,7 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8146,7 +8299,7 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8184,7 +8337,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8222,7 +8375,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8258,7 +8411,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8294,7 +8447,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8330,7 +8483,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -8370,49 +8523,49 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8501,7 +8654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8563,7 +8716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8625,7 +8778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8684,7 +8837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8740,7 +8893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -8788,7 +8941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -8829,7 +8982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -8867,7 +9020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -8915,7 +9068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -8962,7 +9115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -9006,7 +9159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -9038,7 +9191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -9070,7 +9223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -9099,7 +9252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -9129,7 +9282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -9158,7 +9311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -9184,7 +9337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -9220,7 +9373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -9240,7 +9393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -9257,7 +9410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -9277,7 +9430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -9314,7 +9467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -9332,7 +9485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -9349,7 +9502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -9363,7 +9516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -9390,7 +9543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -9401,7 +9554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -9409,7 +9562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -9420,7 +9573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -9431,7 +9584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -9439,7 +9592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -9448,7 +9601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -9456,7 +9609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabet\OneDrive\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="10_ncr:100000_{F0141121-6886-488B-B509-75176B84DCEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{36173C95-DEEE-2B48-9F58-734A8ABF0136}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC1B09C2-9B4E-452B-A55E-71E12B6EBD15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="66">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -228,6 +228,12 @@
   <si>
     <t>model4c.c</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
@@ -265,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,12 +299,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -579,46 +597,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -707,7 +725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -757,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -805,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -852,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -896,7 +914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -967,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1125,7 +1143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1245,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1312,7 +1330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1349,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1386,7 +1404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1466,7 +1484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1488,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1531,42 +1549,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2041,7 +2059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2105,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2164,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -2260,7 +2278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2277,7 +2295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2334,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2352,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2395,7 +2413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2425,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -2436,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2444,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2461,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2476,46 +2494,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2604,10 +2622,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.9445249999999999E-3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2654,10 +2690,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1">
+        <v>3.0092320000000001E-3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -2702,10 +2756,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>3.0411420000000002E-3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2749,10 +2821,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>3.0496199999999998E-3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2793,10 +2883,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="1">
+        <v>2.9742850000000001E-3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
@@ -2829,77 +2931,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="1">
+        <v>2.974342E-3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -2929,10 +3043,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>2.9777720000000001E-3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2961,10 +3087,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>2.9783069999999999E-3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2990,188 +3128,200 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="4"/>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>3.2436589999999999E-3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -3179,6 +3329,9 @@
       <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="X18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AB18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3189,153 +3342,165 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="4"/>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>3.1418370000000002E-3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -3343,75 +3508,78 @@
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="X27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="4"/>
+      <c r="W33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3429,42 +3597,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3553,7 +3721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3603,7 +3771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3651,7 +3819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3742,7 +3910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3778,7 +3946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3813,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +4013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3878,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3910,7 +4078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3939,7 +4107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3971,7 +4139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4003,7 +4171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4032,7 +4200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -4062,7 +4230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -4091,7 +4259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4117,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4138,7 +4306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,7 +4326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -4175,7 +4343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4195,7 +4363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -4215,7 +4383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4232,7 +4400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -4250,7 +4418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4267,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -4281,7 +4449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4293,7 +4461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4304,7 +4472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -4312,7 +4480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4323,7 +4491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -4334,7 +4502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -4342,7 +4510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -4359,7 +4527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -4377,42 +4545,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4501,7 +4669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4551,7 +4719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4599,7 +4767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4646,7 +4814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4690,7 +4858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4726,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4761,7 +4929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4793,7 +4961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4826,7 +4994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4858,7 +5026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4887,7 +5055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4919,7 +5087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4951,7 +5119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4980,7 +5148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5010,7 +5178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5039,7 +5207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5065,7 +5233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -5086,7 +5254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5106,7 +5274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5123,7 +5291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5143,7 +5311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5163,7 +5331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5180,7 +5348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5198,7 +5366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5215,7 +5383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -5229,7 +5397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5241,7 +5409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -5252,7 +5420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -5260,7 +5428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5271,7 +5439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -5282,7 +5450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -5290,7 +5458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5299,7 +5467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5307,7 +5475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -5325,42 +5493,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5449,7 +5617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5499,7 +5667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5594,7 +5762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5638,7 +5806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5674,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5741,7 +5909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5774,7 +5942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5806,7 +5974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5835,7 +6003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5867,7 +6035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -5899,7 +6067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5928,7 +6096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5958,7 +6126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5987,7 +6155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6013,7 +6181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6034,7 +6202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6054,7 +6222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6071,7 +6239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6091,7 +6259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6111,7 +6279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6128,7 +6296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6146,7 +6314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6163,7 +6331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6177,7 +6345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6189,7 +6357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6200,7 +6368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6208,7 +6376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6219,7 +6387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6230,7 +6398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6238,7 +6406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6247,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6255,7 +6423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -6274,42 +6442,42 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6398,7 +6566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6448,7 +6616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6496,7 +6664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6543,7 +6711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6587,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6623,7 +6791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6658,7 +6826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6690,7 +6858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6723,7 +6891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6755,7 +6923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6784,7 +6952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6816,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6848,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6877,7 +7045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6907,7 +7075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6936,7 +7104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6962,7 +7130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6983,7 +7151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7003,7 +7171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7020,7 +7188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7040,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7077,7 +7245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7095,7 +7263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7112,7 +7280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -7126,7 +7294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -7138,7 +7306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -7149,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -7157,7 +7325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -7168,7 +7336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -7179,7 +7347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -7187,7 +7355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7196,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7204,7 +7372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -7222,42 +7390,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7346,7 +7514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7396,7 +7564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7444,7 +7612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7491,7 +7659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7535,7 +7703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7571,7 +7739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7606,7 +7774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7638,7 +7806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7671,7 +7839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7703,7 +7871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7732,7 +7900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7764,7 +7932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7796,7 +7964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7825,7 +7993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7855,7 +8023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7884,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7910,7 +8078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7931,7 +8099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7951,7 +8119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7968,7 +8136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7988,7 +8156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -8008,7 +8176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8025,7 +8193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8043,7 +8211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8060,7 +8228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8074,7 +8242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8086,7 +8254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8097,7 +8265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8105,7 +8273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8116,7 +8284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8127,7 +8295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8135,7 +8303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8144,7 +8312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8152,7 +8320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabet\OneDrive\Documents\GitHub\SPP-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber Gillenwaters\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC1B09C2-9B4E-452B-A55E-71E12B6EBD15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799FEE4-C18E-43A4-AD63-EF818091348D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="66">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -299,7 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,6 +312,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -601,42 +607,42 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -725,7 +731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -823,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -870,7 +876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -914,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,7 +956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -985,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1549,42 +1555,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2494,46 +2500,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -3597,42 +3603,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4107,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4435,7 +4441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -4527,7 +4533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -4545,42 +4551,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4719,7 +4725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4894,7 +4900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -5207,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5233,7 +5239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5366,7 +5372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5475,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,42 +5499,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5842,7 +5848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5877,7 +5883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5909,7 +5915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6003,7 +6009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6067,7 +6073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6314,7 +6320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6345,7 +6351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -6437,48 +6443,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6566,10 +6572,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="5">
+        <v>2.578168E-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6616,10 +6640,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="5">
+        <v>2.6990529999999999E-3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -6664,10 +6706,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="5">
+        <v>2.6881639999999998E-3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6711,10 +6771,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="5">
+        <v>2.7028130000000001E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6755,10 +6833,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="5">
+        <v>2.9485129999999998E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
@@ -6791,7 +6887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6826,7 +6922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6858,10 +6954,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="6">
+        <v>2.9485240000000001E-3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -6891,16 +7005,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="5">
+        <v>3.0455220000000002E-3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6923,10 +7061,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="5">
+        <v>3.0749089999999998E-3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6952,7 +7114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6984,7 +7146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7016,7 +7178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7045,7 +7207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7075,7 +7237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7104,7 +7266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7130,10 +7292,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="5">
+        <v>3.0108819999999999E-3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -7151,7 +7331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7171,7 +7351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7188,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7208,7 +7388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7228,7 +7408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7245,7 +7425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7263,7 +7443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7280,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -7294,10 +7474,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="5">
+        <v>2.9159500000000001E-3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -7306,7 +7504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -7317,7 +7515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -7325,7 +7523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -7336,7 +7534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -7347,7 +7545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -7355,7 +7553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7364,7 +7562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7372,13 +7570,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7390,42 +7589,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.796875" style="1"/>
+    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7514,7 +7713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7564,7 +7763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7612,7 +7811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7659,7 +7858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7703,7 +7902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7739,7 +7938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7806,7 +8005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7839,7 +8038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7871,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7900,7 +8099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7932,7 +8131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7964,7 +8163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7993,7 +8192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -8023,7 +8222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -8052,7 +8251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -8078,7 +8277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -8099,7 +8298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -8119,7 +8318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -8136,7 +8335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -8156,7 +8355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -8176,7 +8375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8193,7 +8392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8211,7 +8410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8228,7 +8427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8242,7 +8441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8254,7 +8453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8265,7 +8464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8273,7 +8472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8284,7 +8483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8295,7 +8494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8303,7 +8502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8312,7 +8511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8320,7 +8519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber Gillenwaters\Documents\GitHub\SPP-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799FEE4-C18E-43A4-AD63-EF818091348D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4AD88-B6F5-4117-868B-924C26BB7932}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,10 +22,15 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="66">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -271,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +329,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1551,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1683,6 +1700,18 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1762,24 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="B3" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1781,8 +1827,23 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
@@ -1828,6 +1889,18 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1872,6 +1945,21 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
@@ -1904,70 +1992,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="V8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1975,6 +2063,21 @@
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -2008,6 +2111,21 @@
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2040,6 +2158,21 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2065,181 +2198,181 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="8"/>
+      <c r="W15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="X17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2247,6 +2380,18 @@
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -2264,146 +2409,146 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="8"/>
+      <c r="W24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AB26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2411,6 +2556,15 @@
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -2418,75 +2572,78 @@
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="AC27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="8"/>
+      <c r="W33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6443,7 +6600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\SPP-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4AD88-B6F5-4117-868B-924C26BB7932}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E3208-5FDC-5B46-A37A-AC726B24FBAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -27,11 +27,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="66">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -276,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -310,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +335,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,42 +631,42 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -748,7 +755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -798,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -846,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -893,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -937,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -973,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1427,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1568,46 +1575,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1758,7 +1765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2059,7 +2066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2262,7 +2269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2321,7 +2328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -2376,7 +2383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2446,7 +2453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2503,7 +2510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -2587,7 +2594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2606,7 +2613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -2642,7 +2649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -2661,42 +2668,42 @@
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2919,7 +2926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2984,7 +2991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3046,7 +3053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3094,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3161,7 +3168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3250,7 +3257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3323,7 +3330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -3355,7 +3362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -3469,7 +3476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,7 +3512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -3525,7 +3532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -3542,7 +3549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -3582,7 +3589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -3617,7 +3624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -3634,7 +3641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -3648,7 +3655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -3705,7 +3712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -3741,7 +3748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -3760,42 +3767,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +3941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3982,7 +3989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4334,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4448,7 +4455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -4489,7 +4496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -4506,7 +4513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4526,7 +4533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -4546,7 +4553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -4581,7 +4588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -4598,7 +4605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4654,7 +4661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -4682,7 +4689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -4690,7 +4697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -4704,46 +4711,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4832,10 +4839,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.578168E-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4882,10 +4907,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1">
+        <v>2.6990529999999999E-3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -4930,10 +4973,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>2.6881639999999998E-3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4977,10 +5038,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>2.7028130000000001E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5021,10 +5100,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="1">
+        <v>2.9485129999999998E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1" t="s">
         <v>13</v>
@@ -5057,77 +5157,98 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="1">
+        <v>2.9485240000000001E-3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -5157,16 +5278,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>3.0455220000000002E-3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X10" s="1" t="s">
         <v>13</v>
       </c>
@@ -5189,13 +5334,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>3.0749089999999998E-3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="W11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5218,188 +5387,206 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="10"/>
+      <c r="W15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>3.0108819999999999E-3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -5417,153 +5604,171 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="10"/>
+      <c r="W24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="1">
+        <v>2.9159500000000001E-3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>13</v>
@@ -5572,74 +5777,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="10"/>
+      <c r="W33" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5656,42 +5861,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5780,7 +5985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5830,7 +6035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5878,7 +6083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5925,7 +6130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5969,7 +6174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6005,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6040,7 +6245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6072,7 +6277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6105,7 +6310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6137,7 +6342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6166,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6198,7 +6403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6230,7 +6435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6259,7 +6464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6289,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6318,7 +6523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6344,7 +6549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6365,7 +6570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6385,7 +6590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6402,7 +6607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6422,7 +6627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6442,7 +6647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6459,7 +6664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6477,7 +6682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6494,7 +6699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6508,7 +6713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6520,7 +6725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6531,7 +6736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6539,7 +6744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6550,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6561,7 +6766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6569,7 +6774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6578,7 +6783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6586,7 +6791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -6605,42 +6810,42 @@
       <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6729,7 +6934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6797,7 +7002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6863,7 +7068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6928,7 +7133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6990,7 +7195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7044,7 +7249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7079,7 +7284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7111,7 +7316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7162,7 +7367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7218,7 +7423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7271,7 +7476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7303,7 +7508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7335,7 +7540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7364,7 +7569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7394,7 +7599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7423,7 +7628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7449,7 +7654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7488,7 +7693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7508,7 +7713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7525,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7545,7 +7750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7565,7 +7770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7582,7 +7787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7600,7 +7805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7617,7 +7822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -7631,7 +7836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -7661,7 +7866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -7672,7 +7877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -7680,7 +7885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -7691,7 +7896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -7702,7 +7907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -7710,7 +7915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7719,7 +7924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7727,7 +7932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -7746,42 +7951,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.75" style="1"/>
+    <col min="29" max="29" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7870,7 +8075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7920,7 +8125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7968,7 +8173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8015,7 +8220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8059,7 +8264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -8095,7 +8300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8130,7 +8335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8162,7 +8367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -8195,7 +8400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -8227,7 +8432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -8256,7 +8461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -8288,7 +8493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -8320,7 +8525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -8349,7 +8554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -8379,7 +8584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -8408,7 +8613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -8434,7 +8639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -8455,7 +8660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -8475,7 +8680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -8492,7 +8697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -8512,7 +8717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -8532,7 +8737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8549,7 +8754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8567,7 +8772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8584,7 +8789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8598,7 +8803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8610,7 +8815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8621,7 +8826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8629,7 +8834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8640,7 +8845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8651,7 +8856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8659,7 +8864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8668,7 +8873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8676,7 +8881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>

--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E3208-5FDC-5B46-A37A-AC726B24FBAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,20 +16,20 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="66">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -238,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -617,21 +611,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -666,7 +660,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -755,7 +749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -805,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -853,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -900,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -944,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -980,7 +974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1112,7 +1106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1205,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1340,7 +1334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1377,7 +1371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1417,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1434,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1469,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1483,7 +1477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1495,7 +1489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1536,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1553,7 +1547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1561,25 +1555,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -1614,7 +1613,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="7" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="7" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="7" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="7" customFormat="1">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="7" customFormat="1">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="7" customFormat="1">
       <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="7" customFormat="1">
       <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="7" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="7" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -2657,18 +2656,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -2703,7 +2707,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2991,7 +2995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3450,7 +3454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -3748,26 +3752,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -3802,7 +3811,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3891,10 +3900,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.6472919999999999E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3941,10 +3965,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1">
+        <v>2.6646769999999998E-3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -3989,13 +4028,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="1">
+        <v>2.7021950000000001E-3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4036,10 +4093,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="1">
+        <v>2.7117830000000002E-3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4080,14 +4152,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="B6" s="1">
+        <v>2.8662200000000001E-3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4116,81 +4211,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" s="9" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="P7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="9" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="V8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="B9" s="1">
+        <v>2.898865E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4216,16 +4334,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B10" s="1">
+        <v>2.9975639999999999E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4248,13 +4390,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>3.0021829999999998E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4277,195 +4443,219 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" s="9" customFormat="1">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="9" customFormat="1">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="9" customFormat="1">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="9" customFormat="1">
+      <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="P15" s="10"/>
+      <c r="W15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="9" customFormat="1">
+      <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="V16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="9" customFormat="1">
+      <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="1">
+        <v>3.0429849999999998E-3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Y18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AB18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4476,246 +4666,274 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:30" s="9" customFormat="1">
+      <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="Q19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="9" customFormat="1">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="Q20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="9" customFormat="1">
+      <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="P21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="9" customFormat="1">
+      <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="P22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="9" customFormat="1">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="P23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="9" customFormat="1">
+      <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="10"/>
+      <c r="W24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="9" customFormat="1">
+      <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="9" customFormat="1">
+      <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="B27" s="1">
+        <v>3.2086630000000001E-3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q27" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="T27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="Y27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="9" customFormat="1">
+      <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="Q28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="9" customFormat="1">
+      <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="Q29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="9" customFormat="1">
+      <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="P30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="9" customFormat="1">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="P31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="9" customFormat="1">
+      <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="P32" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="9" customFormat="1">
+      <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="P33" s="10"/>
+      <c r="W33" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="9" customFormat="1">
+      <c r="A34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="V34" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="9" customFormat="1">
+      <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -4750,7 +4968,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4839,7 +5057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4907,7 +5125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4973,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5038,7 +5256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5100,7 +5318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5157,7 +5375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="9" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -5192,7 +5410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -5224,7 +5442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5278,7 +5496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5334,7 +5552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5387,7 +5605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="9" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -5419,7 +5637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="9" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -5451,7 +5669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -5480,7 +5698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -5510,7 +5728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -5539,7 +5757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="9" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -5565,7 +5783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -5604,7 +5822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="9" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -5624,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="9" customFormat="1">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -5641,7 +5859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="9" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -5661,7 +5879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
@@ -5681,7 +5899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
@@ -5698,7 +5916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -5716,7 +5934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -5733,7 +5951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="9" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -5747,7 +5965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5777,7 +5995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="9" customFormat="1">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
@@ -5788,7 +6006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="9" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
@@ -5796,7 +6014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="9" customFormat="1">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
@@ -5807,7 +6025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="9" customFormat="1">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -5818,7 +6036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="9" customFormat="1">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -5826,7 +6044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="9" customFormat="1">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -5835,7 +6053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
         <v>62</v>
       </c>
@@ -5843,25 +6061,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="9" customFormat="1">
       <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -5896,7 +6119,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5985,7 +6208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6035,7 +6258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6083,7 +6306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6130,7 +6353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6174,7 +6397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6210,7 +6433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6245,7 +6468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6277,7 +6500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6310,7 +6533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6342,7 +6565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6371,7 +6594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6403,7 +6626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6435,7 +6658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6464,7 +6687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6494,7 +6717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6523,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6549,7 +6772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6570,7 +6793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6590,7 +6813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6607,7 +6830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6627,7 +6850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6647,7 +6870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6664,7 +6887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6682,7 +6905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6699,7 +6922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6713,7 +6936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6725,7 +6948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6736,7 +6959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6744,7 +6967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6755,7 +6978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6766,7 +6989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6774,7 +6997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -6783,7 +7006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -6791,18 +7014,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6810,7 +7038,7 @@
       <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="5" customWidth="1"/>
@@ -6845,7 +7073,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6934,7 +7162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7002,7 +7230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7068,7 +7296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7133,7 +7361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7195,7 +7423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7249,7 +7477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7316,7 +7544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7367,7 +7595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7423,7 +7651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7476,7 +7704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7508,7 +7736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7540,7 +7768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7569,7 +7797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7599,7 +7827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7628,7 +7856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7654,7 +7882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7693,7 +7921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7713,7 +7941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7730,7 +7958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7750,7 +7978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7770,7 +7998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -7787,7 +8015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -7805,7 +8033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7822,7 +8050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -7836,7 +8064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -7866,7 +8094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -7877,7 +8105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -7885,7 +8113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -7896,7 +8124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -7907,7 +8135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -7915,7 +8143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7924,7 +8152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7932,26 +8160,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -7986,7 +8219,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8075,7 +8308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8125,7 +8358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8173,7 +8406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8220,7 +8453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8264,7 +8497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -8300,7 +8533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8335,7 +8568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8367,7 +8600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -8400,7 +8633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -8432,7 +8665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -8461,7 +8694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -8493,7 +8726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -8525,7 +8758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -8554,7 +8787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -8584,7 +8817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -8613,7 +8846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -8639,7 +8872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -8660,7 +8893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -8680,7 +8913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -8697,7 +8930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -8717,7 +8950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -8737,7 +8970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8754,7 +8987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8772,7 +9005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8789,7 +9022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8803,7 +9036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8815,7 +9048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8826,7 +9059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8834,7 +9067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8845,7 +9078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8856,7 +9089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8864,7 +9097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8873,7 +9106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8881,12 +9114,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/subject_Analysis.Tables.xlsx
+++ b/subject_Analysis.Tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF08766-74A0-9D46-B63F-E6C585E7E83A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11680" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -16,20 +22,20 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="66">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -232,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -611,21 +617,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -660,7 +666,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -749,7 +755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -799,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -847,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -894,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -974,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1571,14 +1577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -1613,7 +1619,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="7" customFormat="1">
+    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="7" customFormat="1">
+    <row r="8" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="7" customFormat="1">
+    <row r="12" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="7" customFormat="1">
+    <row r="13" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="7" customFormat="1">
+    <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="7" customFormat="1">
+    <row r="15" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="7" customFormat="1">
+    <row r="16" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="7" customFormat="1">
+    <row r="17" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="7" customFormat="1">
+    <row r="19" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="7" customFormat="1">
+    <row r="20" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="7" customFormat="1">
+    <row r="21" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1">
+    <row r="22" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="7" customFormat="1">
+    <row r="23" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="7" customFormat="1">
+    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="7" customFormat="1">
+    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="7" customFormat="1">
+    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="7" customFormat="1">
+    <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="7" customFormat="1">
+    <row r="29" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="7" customFormat="1">
+    <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="7" customFormat="1">
+    <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="7" customFormat="1">
+    <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="7" customFormat="1">
+    <row r="33" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="7" customFormat="1">
+    <row r="34" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="7" customFormat="1">
+    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -2665,14 +2671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -2707,7 +2713,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1">
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1">
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1">
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1">
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1">
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1">
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1">
+    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1">
+    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1">
+    <row r="22" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1">
+    <row r="23" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1">
+    <row r="24" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1">
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1">
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1">
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1">
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1">
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1">
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1">
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1">
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -3769,14 +3775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -3811,7 +3817,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -4507,7 +4513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="9" customFormat="1">
+    <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="9" customFormat="1">
+    <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="9" customFormat="1">
+    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="9" customFormat="1">
+    <row r="21" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1">
+    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="9" customFormat="1">
+    <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="9" customFormat="1">
+    <row r="24" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1">
+    <row r="25" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="9" customFormat="1">
+    <row r="26" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="9" customFormat="1">
+    <row r="28" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="9" customFormat="1">
+    <row r="29" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="9" customFormat="1">
+    <row r="30" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1">
+    <row r="31" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1">
+    <row r="32" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="9" customFormat="1">
+    <row r="33" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="9" customFormat="1">
+    <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>62</v>
       </c>
@@ -4910,7 +4916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="9" customFormat="1">
+    <row r="35" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
@@ -4926,14 +4932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -4968,7 +4974,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5057,12 +5063,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>2.578168E-3</v>
+        <v>1.731575E-3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -5070,15 +5076,12 @@
       <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5125,12 +5128,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>2.6990529999999999E-3</v>
+        <v>1.9918240000000001E-3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -5138,16 +5141,15 @@
       <c r="F3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
@@ -5191,12 +5193,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>2.6881639999999998E-3</v>
+        <v>2.0310459999999999E-3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>64</v>
@@ -5204,18 +5206,18 @@
       <c r="F4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5256,12 +5258,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>2.7028130000000001E-3</v>
+        <v>2.039529E-3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
@@ -5269,13 +5271,10 @@
       <c r="F5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -5318,32 +5317,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>2.9485129999999998E-3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>2.0698919999999998E-3</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>13</v>
       </c>
@@ -5375,7 +5364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +5399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -5442,35 +5431,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1">
-        <v>2.9485240000000001E-3</v>
+        <v>2.436901E-3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="V9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>13</v>
       </c>
@@ -5496,29 +5482,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="1">
-        <v>3.0455220000000002E-3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>2.2896790000000002E-3</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -5528,7 +5505,7 @@
         <v>13</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>13</v>
@@ -5552,36 +5529,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>3.0749089999999998E-3</v>
+        <v>2.4779630000000001E-3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>65</v>
+      <c r="V11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>13</v>
@@ -5605,7 +5579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -5637,7 +5611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -5669,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -5698,7 +5672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -5728,7 +5702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -5757,7 +5731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="9" customFormat="1">
+    <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -5783,32 +5757,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>3.0108819999999999E-3</v>
+        <v>2.5558439999999998E-3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="V18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
@@ -5822,7 +5798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="9" customFormat="1">
+    <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -5842,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="9" customFormat="1">
+    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -5859,7 +5835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="9" customFormat="1">
+    <row r="21" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -5879,7 +5855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1">
+    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
@@ -5899,7 +5875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="9" customFormat="1">
+    <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
@@ -5916,7 +5892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="9" customFormat="1">
+    <row r="24" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -5934,7 +5910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1">
+    <row r="25" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -5951,7 +5927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="9" customFormat="1">
+    <row r="26" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -5965,37 +5941,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="1">
-        <v>2.9159500000000001E-3</v>
+        <v>2.6464489999999999E-3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P27" s="2"/>
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q27" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="V27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="9" customFormat="1">
+    <row r="28" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
@@ -6006,7 +5984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="9" customFormat="1">
+    <row r="29" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
@@ -6014,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="9" customFormat="1">
+    <row r="30" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
@@ -6025,7 +6003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1">
+    <row r="31" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -6036,7 +6014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1">
+    <row r="32" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -6044,7 +6022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="9" customFormat="1">
+    <row r="33" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -6053,7 +6031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="9" customFormat="1">
+    <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>62</v>
       </c>
@@ -6061,7 +6039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="9" customFormat="1">
+    <row r="35" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
@@ -6077,14 +6055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -6119,7 +6097,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6208,7 +6186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6258,7 +6236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6306,7 +6284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6353,7 +6331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6397,7 +6375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6433,7 +6411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6468,7 +6446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6500,7 +6478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6533,7 +6511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -6565,7 +6543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6594,7 +6572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6626,7 +6604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6658,7 +6636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6687,7 +6665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -6717,7 +6695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -6746,7 +6724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6772,7 +6750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -6793,7 +6771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -6813,7 +6791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -6830,7 +6808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -6850,7 +6828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6870,7 +6848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -6887,7 +6865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -6905,7 +6883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -6922,7 +6900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -6936,7 +6914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6948,7 +6926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -6959,7 +6937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -6967,7 +6945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6978,7 +6956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -6989,7 +6967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -6997,7 +6975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7006,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7014,7 +6992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -7030,7 +7008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7038,7 +7016,7 @@
       <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="5" customWidth="1"/>
@@ -7073,7 +7051,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
@@ -7162,7 +7140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7230,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7296,7 +7274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7361,7 +7339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7423,7 +7401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7477,7 +7455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7512,7 +7490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7544,7 +7522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -7595,7 +7573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -7651,7 +7629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7704,7 +7682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7736,7 +7714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7768,7 +7746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -7797,7 +7775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -7827,7 +7805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7856,7 +7834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -7882,7 +7860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -7921,7 +7899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -7941,7 +7919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7958,7 +7936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -7978,7 +7956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -7998,7 +7976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8015,7 +7993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8033,7 +8011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -8050,7 +8028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -8064,7 +8042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -8094,7 +8072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -8105,7 +8083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -8113,7 +8091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -8124,7 +8102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -8135,7 +8113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -8143,7 +8121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8152,7 +8130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -8160,7 +8138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -8177,14 +8155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
@@ -8219,7 +8197,7 @@
     <col min="31" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8308,7 +8286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8358,7 +8336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8453,7 +8431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8497,7 +8475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -8533,7 +8511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8568,7 +8546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8600,7 +8578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -8633,7 +8611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -8665,7 +8643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -8694,7 +8672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -8726,7 +8704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -8758,7 +8736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -8787,7 +8765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -8817,7 +8795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -8846,7 +8824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -8872,7 +8850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -8893,7 +8871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -8913,7 +8891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -8930,7 +8908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -8950,7 +8928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -8970,7 +8948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -8987,7 +8965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -9005,7 +8983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -9022,7 +9000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -9036,7 +9014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -9048,7 +9026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -9059,7 +9037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -9067,7 +9045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -9078,7 +9056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -9089,7 +9067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -9097,7 +9075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -9106,7 +9084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -9114,7 +9092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
